--- a/data_craw/annual/cash_flow_annual/msb.xlsx
+++ b/data_craw/annual/cash_flow_annual/msb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1. Lợi nhuận trước thuế</t>
+          <t>1. Tiền thu từ bán hàng, cung cấp dịch vụ và doanh thu khác</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -485,7 +485,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2. Điều chỉnh cho các khoản</t>
+          <t>2. Tiền chi trả cho người cung cấp hàng hóa và dịch vụ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -496,7 +496,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>- Khấu hao TSCĐ và BĐSĐT</t>
+          <t>3. Tiền chi trả cho người lao động</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -507,7 +507,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Các khoản dự phòng</t>
+          <t>4. Tiền lãi vay đã trả</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Lãi, lỗ chênh lệch tỷ giá hối đoái do đánh giá lại các khoản mục tiền tệ có gốc ngoại tệ</t>
+          <t>5. Thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -529,7 +529,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- Lãi, lỗ từ hoạt động đầu tư</t>
+          <t>6. Tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -540,7 +540,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>- Chi phí lãi vay</t>
+          <t>7. Tiền chi khác cho hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -551,7 +551,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Các khoản điều chỉnh khác</t>
+          <t>Lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -562,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3. Lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>II. Lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -573,7 +573,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- Tăng, giảm các khoản phải thu</t>
+          <t>1.Tiền chi để mua sắm, xây dựng TSCĐ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -584,7 +584,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- Tăng, giảm hàng tồn kho</t>
+          <t>2.Tiền thu từ thanh lý, nhượng bán TSCĐ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -595,7 +595,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Tăng, giảm các khoản phải trả (Không kể lãi vay phải trả, thuế thu nhập doanh nghiệp phải nộp)</t>
+          <t>3.Tiền chi cho vay, mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -606,7 +606,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- Tăng, giảm chi phí trả trước</t>
+          <t>4.Tiền thu hồi cho vay, bán lại các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -617,7 +617,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Tăng, giảm chứng khoán kinh doanh</t>
+          <t>5.Tiền chi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- Tiền lãi vay đã trả</t>
+          <t>6.Tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -639,7 +639,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>- Thuế thu nhập doanh nghiệp đã nộp</t>
+          <t>7.Tiền thu lãi cho vay, cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -650,7 +650,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>- Tiền thu khác từ hoạt động kinh doanh</t>
+          <t>Lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>- Tiền chi khác cho hoạt động kinh doanh</t>
+          <t>III. Lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -672,7 +672,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>1.Tiền thu từ phát hành cổ phiếu, nhận vốn góp của chủ sở hữu</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -683,7 +683,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>II. Lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>2. Tiền trả lại vốn góp cho các chủ sở hữu, mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -694,7 +694,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.Tiền chi để mua sắm, xây dựng TSCĐ và các tài sản dài hạn khác</t>
+          <t>3.Tiền thu từ đi vay</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -705,7 +705,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2.Tiền thu từ thanh lý, nhượng bán TSCĐ và các tài sản dài hạn khác</t>
+          <t>4.Tiền chi trả nợ gốc vay</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3.Tiền chi cho vay, mua các công cụ nợ của đơn vị khác</t>
+          <t>5.Tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -727,7 +727,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4.Tiền thu hồi cho vay, bán lại các công cụ nợ của đơn vị khác</t>
+          <t>6. Cổ tức, lợi nhuận đã trả cho chủ sở hữu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -738,7 +738,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5.Tiền chi đầu tư góp vốn vào đơn vị khác</t>
+          <t>7. Tiền thu từ vốn góp của cổ đông không kiểm soát</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -749,7 +749,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6.Tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+          <t>Lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7.Tiền thu lãi cho vay, cổ tức và lợi nhuận được chia</t>
+          <t>Lưu chuyển tiền thuần trong kỳ (50 = 20+30+40)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>Tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -782,7 +782,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>III. Lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>Ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -793,7 +793,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1.Tiền thu từ phát hành cổ phiếu, nhận vốn góp của chủ sở hữu</t>
+          <t>Tiền và tương đương tiền cuối kỳ (70 = 50+60+61)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -801,127 +801,6 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2.Tiền trả lại vón góp cho các chủ sở hữu, mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>3.Tiền thu từ đi vay</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>4.Tiền chi trả nợ gốc vay</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>5.Tiền chi trả nợ gốc thuê tài chính</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>6. Cổ tức, lợi nhuận đã trả cho chủ sở hữu</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>7. Tiền thu từ vốn góp của cổ đông không kiểm soát</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Lưu chuyển tiền thuần từ hoạt động tài chính</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Lưu chuyển tiền thuần trong kỳ (50 = 20+30+40)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tiền và tương đương tiền đầu kỳ</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tiền và tương đương tiền cuối kỳ (70 = 50+60+61)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
